--- a/helpers/Spalten.xlsx
+++ b/helpers/Spalten.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13440" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13440" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -98,14 +99,58 @@
   </si>
   <si>
     <t>Standort</t>
+  </si>
+  <si>
+    <t>Verwendungszweck</t>
+  </si>
+  <si>
+    <t>Besetzung</t>
+  </si>
+  <si>
+    <t>Notenwert</t>
+  </si>
+  <si>
+    <t>Strichart</t>
+  </si>
+  <si>
+    <t>Übung</t>
+  </si>
+  <si>
+    <t>Melodische Besonderheit</t>
+  </si>
+  <si>
+    <t>Dynamische Besonderheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhythmische Besonderheit </t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL </t>
+  </si>
+  <si>
+    <t>musikstueck</t>
+  </si>
+  <si>
+    <t>satz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,8 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2036,4 +2082,180 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO category (Name, Relation) VALUES('" &amp; A2 &amp; "', '" &amp; B2 &amp; "') ;"</f>
+        <v>INSERT INTO category (Name, Relation) VALUES('Verwendungszweck', 'musikstueck') ;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" si="0">"INSERT INTO category (Name, Relation) VALUES('" &amp; A3 &amp; "', '" &amp; B3 &amp; "') ;"</f>
+        <v>INSERT INTO category (Name, Relation) VALUES('Besetzung', 'musikstueck') ;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Epoche', 'musikstueck') ;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Gattung', 'musikstueck') ;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Erprobt', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Notenwert', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Schwierigkeitsgrad', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Strichart', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Übung', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Melodische Besonderheit', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Dynamische Besonderheit', 'satz') ;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO category (Name, Relation) VALUES('Rhythmische Besonderheit ', 'satz') ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/helpers/Spalten.xlsx
+++ b/helpers/Spalten.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -135,13 +136,31 @@
   </si>
   <si>
     <t>satz</t>
+  </si>
+  <si>
+    <t>GattungID</t>
+  </si>
+  <si>
+    <t>EpocheID</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>ErprobtID</t>
+  </si>
+  <si>
+    <t>SchwierigkeitsgradID</t>
+  </si>
+  <si>
+    <t>BesonderheitID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +175,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,9 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2086,10 +2125,323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>"(" &amp; A2</f>
+        <v>(ID</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>", " &amp; A3</f>
+        <v>, Name</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>", " &amp; A4</f>
+        <v>, Opus</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>", " &amp; A5</f>
+        <v>, SammlungID</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>", " &amp; A6</f>
+        <v>, Nummer</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>", " &amp; A7</f>
+        <v>, KomponistID</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>", " &amp; A8</f>
+        <v>, Bearbeiter</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>", " &amp; A9</f>
+        <v>, JahrAuffuehrung</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>", " &amp; A10</f>
+        <v>, GattungID</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>", " &amp; A11 &amp; ")"</f>
+        <v>, EpocheID)</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>"(" &amp; A20</f>
+        <v>(MusikstueckID</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>", " &amp; A21</f>
+        <v>, Name</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" ref="B22:B32" si="0">", " &amp; A22</f>
+        <v>, Tonart</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Taktart</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Tempobezeichnung</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Spieldauer</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Lagen</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Bemerkung</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Nr</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, Notenwerte</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, ErprobtID</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>, SchwierigkeitsgradID</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f>", " &amp; A32 &amp; ")"</f>
+        <v>, BesonderheitID)</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/helpers/Spalten.xlsx
+++ b/helpers/Spalten.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="4" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
+    <sheet name="select alle objekte" sheetId="5" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +155,147 @@
   </si>
   <si>
     <t>BesonderheitID</t>
+  </si>
+  <si>
+    <t>Tables_in_dbs12499392</t>
+  </si>
+  <si>
+    <t>besetzung</t>
+  </si>
+  <si>
+    <t>epoche</t>
+  </si>
+  <si>
+    <t>erprobt</t>
+  </si>
+  <si>
+    <t>gattung</t>
+  </si>
+  <si>
+    <t>komponist</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>linktype</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>lookup_type</t>
+  </si>
+  <si>
+    <t>musikstueck_besetzung</t>
+  </si>
+  <si>
+    <t>musikstueck_verwendungszweck</t>
+  </si>
+  <si>
+    <t>notenwert</t>
+  </si>
+  <si>
+    <t>sammlung</t>
+  </si>
+  <si>
+    <t>satz_lookup</t>
+  </si>
+  <si>
+    <t>satz_notenwert</t>
+  </si>
+  <si>
+    <t>satz_strichart</t>
+  </si>
+  <si>
+    <t>satz_uebung</t>
+  </si>
+  <si>
+    <t>schwierigkeitsgrad</t>
+  </si>
+  <si>
+    <t>standort</t>
+  </si>
+  <si>
+    <t>strichart</t>
+  </si>
+  <si>
+    <t>uebung</t>
+  </si>
+  <si>
+    <t>v_komponist</t>
+  </si>
+  <si>
+    <t>v_lookup</t>
+  </si>
+  <si>
+    <t>v_lookup_groups</t>
+  </si>
+  <si>
+    <t>v_musikstueck</t>
+  </si>
+  <si>
+    <t>v_sammlung</t>
+  </si>
+  <si>
+    <t>v_satz</t>
+  </si>
+  <si>
+    <t>v_satz_tmp_bes_dynam</t>
+  </si>
+  <si>
+    <t>v_satz_tmp_bes_melod</t>
+  </si>
+  <si>
+    <t>v_satz_tmp_bes_rhytm</t>
+  </si>
+  <si>
+    <t>v_satz_tmp_uebung</t>
+  </si>
+  <si>
+    <t>v_test_musikstueck_ohne_besetzung</t>
+  </si>
+  <si>
+    <t>v_test_musikstueck_ohne_komponist</t>
+  </si>
+  <si>
+    <t>v_test_musikstueck_ohne_satz</t>
+  </si>
+  <si>
+    <t>v_test_sammlung_ohne_musikstueck</t>
+  </si>
+  <si>
+    <t>v_test_sammlung_ohne_verlag</t>
+  </si>
+  <si>
+    <t>v_test_satz_ohne_erprobt</t>
+  </si>
+  <si>
+    <t>v_test_satz_ohne_schwierigkeitsgrad</t>
+  </si>
+  <si>
+    <t>v_test_satz_ohne_spieldauer</t>
+  </si>
+  <si>
+    <t>v_tmp_Lagen</t>
+  </si>
+  <si>
+    <t>v_tmp_Spieldauer</t>
+  </si>
+  <si>
+    <t>v_tmp_Taktart</t>
+  </si>
+  <si>
+    <t>v_tmp_Tempobezeichnung</t>
+  </si>
+  <si>
+    <t>v_tmp_Tonart</t>
+  </si>
+  <si>
+    <t>verlag</t>
+  </si>
+  <si>
+    <t>verwendungszweck</t>
   </si>
 </sst>
 </file>
@@ -210,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -219,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,10 +2270,668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.265625" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"SELECT * FROM " &amp; A1 &amp; ";"</f>
+        <v>SELECT * FROM Tables_in_dbs12499392;</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"SELECT count(*) FROM " &amp; A1 &amp; ";"</f>
+        <v>SELECT count(*) FROM Tables_in_dbs12499392;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B49" si="0">"SELECT * FROM " &amp; A2 &amp; ";"</f>
+        <v>SELECT * FROM besetzung;</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C49" si="1">"SELECT count(*) FROM " &amp; A2 &amp; ";"</f>
+        <v>SELECT count(*) FROM besetzung;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM epoche;</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM epoche;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM erprobt;</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM erprobt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM gattung;</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM gattung;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM komponist;</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM komponist;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM link;</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM link;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM linktype;</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM linktype;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM lookup;</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM lookup;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM lookup_type;</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM lookup_type;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM musikstueck;</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM musikstueck;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM musikstueck_besetzung;</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM musikstueck_besetzung;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM musikstueck_verwendungszweck;</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM musikstueck_verwendungszweck;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM notenwert;</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM notenwert;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM sammlung;</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM sammlung;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM satz;</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM satz;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM satz_lookup;</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM satz_lookup;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM satz_notenwert;</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM satz_notenwert;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM satz_strichart;</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM satz_strichart;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM satz_uebung;</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM satz_uebung;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM schwierigkeitsgrad;</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM schwierigkeitsgrad;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM standort;</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM standort;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM strichart;</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM strichart;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM uebung;</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM uebung;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_komponist;</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_komponist;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_lookup;</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_lookup;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_lookup_groups;</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_lookup_groups;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_musikstueck;</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_musikstueck;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_sammlung;</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_sammlung;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_satz;</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_satz;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_satz_tmp_bes_dynam;</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_satz_tmp_bes_dynam;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_satz_tmp_bes_melod;</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_satz_tmp_bes_melod;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_satz_tmp_bes_rhytm;</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_satz_tmp_bes_rhytm;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_satz_tmp_uebung;</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_satz_tmp_uebung;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_musikstueck_ohne_besetzung;</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_musikstueck_ohne_besetzung;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_musikstueck_ohne_komponist;</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_musikstueck_ohne_komponist;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_musikstueck_ohne_satz;</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_musikstueck_ohne_satz;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_sammlung_ohne_musikstueck;</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_sammlung_ohne_musikstueck;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_sammlung_ohne_verlag;</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_sammlung_ohne_verlag;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_satz_ohne_erprobt;</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_satz_ohne_erprobt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_satz_ohne_schwierigkeitsgrad;</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_satz_ohne_schwierigkeitsgrad;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_test_satz_ohne_spieldauer;</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_test_satz_ohne_spieldauer;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_tmp_Lagen;</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_tmp_Lagen;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_tmp_Spieldauer;</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_tmp_Spieldauer;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_tmp_Taktart;</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_tmp_Taktart;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_tmp_Tempobezeichnung;</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_tmp_Tempobezeichnung;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM v_tmp_Tonart;</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM v_tmp_Tonart;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM verlag;</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM verlag;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM verwendungszweck;</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>SELECT count(*) FROM verwendungszweck;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2155,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>", " &amp; A3</f>
+        <f t="shared" ref="B3:B10" si="0">", " &amp; A3</f>
         <v>, Name</v>
       </c>
       <c r="C3" s="3"/>
@@ -2167,7 +2970,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>", " &amp; A4</f>
+        <f t="shared" si="0"/>
         <v>, Opus</v>
       </c>
       <c r="C4" s="3"/>
@@ -2179,7 +2982,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>", " &amp; A5</f>
+        <f t="shared" si="0"/>
         <v>, SammlungID</v>
       </c>
       <c r="C5" s="3"/>
@@ -2191,7 +2994,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>", " &amp; A6</f>
+        <f t="shared" si="0"/>
         <v>, Nummer</v>
       </c>
       <c r="C6" s="3"/>
@@ -2203,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>", " &amp; A7</f>
+        <f t="shared" si="0"/>
         <v>, KomponistID</v>
       </c>
       <c r="C7" s="3"/>
@@ -2215,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>", " &amp; A8</f>
+        <f t="shared" si="0"/>
         <v>, Bearbeiter</v>
       </c>
       <c r="C8" s="3"/>
@@ -2227,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>", " &amp; A9</f>
+        <f t="shared" si="0"/>
         <v>, JahrAuffuehrung</v>
       </c>
       <c r="C9" s="3"/>
@@ -2239,7 +3042,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>", " &amp; A10</f>
+        <f t="shared" si="0"/>
         <v>, GattungID</v>
       </c>
       <c r="C10" s="3"/>
@@ -2304,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ref="B22:B32" si="0">", " &amp; A22</f>
+        <f t="shared" ref="B22:B31" si="1">", " &amp; A22</f>
         <v>, Tonart</v>
       </c>
       <c r="C22" s="3"/>
@@ -2316,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Taktart</v>
       </c>
       <c r="C23" s="3"/>
@@ -2328,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Tempobezeichnung</v>
       </c>
       <c r="C24" s="3"/>
@@ -2340,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Spieldauer</v>
       </c>
       <c r="C25" s="3"/>
@@ -2352,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Lagen</v>
       </c>
       <c r="C26" s="3"/>
@@ -2364,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Bemerkung</v>
       </c>
       <c r="C27" s="3"/>
@@ -2376,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Nr</v>
       </c>
       <c r="C28" s="3"/>
@@ -2388,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, Notenwerte</v>
       </c>
       <c r="C29" s="3"/>
@@ -2400,7 +3203,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, ErprobtID</v>
       </c>
       <c r="C30" s="3"/>
@@ -2412,7 +3215,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>, SchwierigkeitsgradID</v>
       </c>
       <c r="C31" s="3"/>
@@ -2436,7 +3239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
